--- a/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
@@ -521,6 +521,9 @@
       <c r="C11" t="str">
         <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -582,7 +585,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020105515105650</v>
+        <v>020105515105655</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,9 +525,95 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F14" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>309_彩星 浅紫_Tinted Gypso light purple_undefined_0.5kg</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v>364_国产花边春兰叶_Cymbidium leaf_Cymbidium goeringii (Rchb. f.) Rchb. F._1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2</v>
+      </c>
+      <c r="C18" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F18" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>3</v>
+      </c>
+      <c r="C19" t="str">
+        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -585,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020105515105655</v>
+        <v>02010551510565555310552000110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
@@ -610,6 +610,9 @@
       <c r="C21" t="str">
         <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -671,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02010551510565555310552000110</v>
+        <v>020105515105655553105520001113</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,9 +614,89 @@
         <v>13</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>309_彩星 浅紫_Tinted Gypso light purple_undefined_0.5kg</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F25" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>4</v>
+      </c>
+      <c r="C27" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F30" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -674,7 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020105515105655553105520001113</v>
+        <v>020105515105655553105520001113621511510611270</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
@@ -693,6 +693,9 @@
       <c r="C31" t="str">
         <v>48_香格里拉_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -754,7 +757,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020105515105655553105520001113621511510611270</v>
+        <v>0201055151056555531055200011136215115106112730</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,9 +697,44 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>67_丘比特_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>5</v>
+      </c>
+      <c r="C33" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>301_彩星 红_Tinted Gypso Red_ gypsophila_0.5kg</v>
+      </c>
+      <c r="F35" t="str">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L35"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -757,7 +792,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0201055151056555531055200011136215115106112730</v>
+        <v>020105515105655553105520001113621511510611273054237</v>
       </c>
     </row>
   </sheetData>
